--- a/Work Tracker/RealHours.xlsx
+++ b/Work Tracker/RealHours.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB48317-A57C-420E-9579-BA68FFEE61B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -39,7 +48,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -155,6 +164,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -202,7 +214,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -235,9 +247,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,6 +299,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,25 +491,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.54296875" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="5"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1328125" style="5"/>
+    <col min="7" max="7" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -483,7 +529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A2" s="15">
         <v>43654</v>
       </c>
@@ -506,7 +552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A3" s="15">
         <v>43655</v>
       </c>
@@ -529,7 +575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A4" s="15">
         <v>43656</v>
       </c>
@@ -552,7 +598,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A5" s="15">
         <v>43657</v>
       </c>
@@ -575,7 +621,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A6" s="15">
         <v>43658</v>
       </c>
@@ -598,7 +644,7 @@
         <v>-0.125</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A7" s="15">
         <v>43659</v>
       </c>
@@ -621,7 +667,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A8" s="16">
         <v>43660</v>
       </c>
@@ -644,7 +690,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A9" s="15">
         <v>43661</v>
       </c>
@@ -667,7 +713,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A10" s="15">
         <v>43662</v>
       </c>
@@ -690,7 +736,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A11" s="15">
         <v>43663</v>
       </c>
@@ -714,7 +760,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A12" s="15">
         <v>43664</v>
       </c>
@@ -738,7 +784,7 @@
         <v>0.90625</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A13" s="15">
         <v>43665</v>
       </c>
@@ -761,7 +807,7 @@
         <v>0.34375</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A14" s="15">
         <v>43666</v>
       </c>
@@ -784,7 +830,7 @@
         <v>0.34375</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A15" s="17">
         <v>43667</v>
       </c>
@@ -805,7 +851,7 @@
         <v>0.96875</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A16" s="15">
         <v>43668</v>
       </c>
@@ -829,7 +875,7 @@
         <v>1.09375</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A17" s="15">
         <v>43669</v>
       </c>
@@ -854,7 +900,7 @@
       </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A18" s="15">
         <v>43670</v>
       </c>
@@ -878,7 +924,7 @@
       </c>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A19" s="15">
         <v>43671</v>
       </c>
@@ -902,7 +948,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A20" s="15">
         <v>43672</v>
       </c>
@@ -925,7 +971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A21" s="15">
         <v>43673</v>
       </c>
@@ -948,7 +994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A22" s="18">
         <v>43674</v>
       </c>
@@ -971,7 +1017,7 @@
         <v>2.1875</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A23" s="15">
         <v>43675</v>
       </c>
@@ -994,7 +1040,7 @@
         <v>2.1875</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A24" s="15">
         <v>43676</v>
       </c>
@@ -1017,11 +1063,17 @@
         <v>2.1875</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A25" s="15">
         <v>43677</v>
       </c>
-      <c r="B25" s="4"/>
+      <c r="B25" s="4">
+        <f>15.5-9.25</f>
+        <v>6.25</v>
+      </c>
+      <c r="C25" s="14">
+        <v>6.25</v>
+      </c>
       <c r="D25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1035,7 +1087,7 @@
         <v>2.1875</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A26" s="15">
         <v>43678</v>
       </c>
@@ -1053,7 +1105,7 @@
         <v>2.1875</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A27" s="15">
         <v>43679</v>
       </c>
@@ -1071,7 +1123,7 @@
         <v>2.1875</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A28" s="15">
         <v>43680</v>
       </c>
@@ -1088,7 +1140,7 @@
         <v>2.1875</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A29" s="17">
         <v>43681</v>
       </c>
@@ -1107,7 +1159,7 @@
         <v>2.1875</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A30" s="15">
         <v>43682</v>
       </c>
@@ -1125,7 +1177,7 @@
         <v>2.1875</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A31" s="15">
         <v>43683</v>
       </c>
@@ -1143,7 +1195,7 @@
         <v>2.1875</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A32" s="15">
         <v>43684</v>
       </c>
@@ -1161,7 +1213,7 @@
         <v>2.1875</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A33" s="15">
         <v>43685</v>
       </c>
@@ -1179,7 +1231,7 @@
         <v>2.1875</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A34" s="15">
         <v>43686</v>
       </c>
@@ -1197,7 +1249,7 @@
         <v>2.1875</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A35" s="15">
         <v>43687</v>
       </c>
@@ -1214,7 +1266,7 @@
         <v>2.1875</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A36" s="18">
         <v>43688</v>
       </c>
@@ -1233,7 +1285,7 @@
         <v>2.1875</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A37" s="15">
         <v>43689</v>
       </c>
@@ -1250,7 +1302,7 @@
         <v>2.1875</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A38" s="15">
         <v>43690</v>
       </c>
@@ -1267,7 +1319,7 @@
         <v>2.1875</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A39" s="15">
         <v>43691</v>
       </c>
@@ -1284,7 +1336,7 @@
         <v>2.1875</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A40" s="15">
         <v>43692</v>
       </c>
@@ -1301,7 +1353,7 @@
         <v>2.1875</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A41" s="15">
         <v>43693</v>
       </c>
@@ -1318,7 +1370,7 @@
         <v>2.1875</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A42" s="15">
         <v>43694</v>
       </c>
@@ -1335,7 +1387,7 @@
         <v>2.1875</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A43" s="19">
         <v>43695</v>
       </c>
@@ -1354,7 +1406,7 @@
         <v>2.1875</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A44" s="15">
         <v>43696</v>
       </c>
@@ -1371,7 +1423,7 @@
         <v>2.1875</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A45" s="15">
         <v>43697</v>
       </c>
@@ -1388,7 +1440,7 @@
         <v>2.1875</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A46" s="15">
         <v>43698</v>
       </c>
@@ -1405,7 +1457,7 @@
         <v>2.1875</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A47" s="15">
         <v>43699</v>
       </c>
@@ -1422,7 +1474,7 @@
         <v>2.1875</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A48" s="15">
         <v>43700</v>
       </c>
@@ -1439,7 +1491,7 @@
         <v>2.1875</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A49" s="15">
         <v>43701</v>
       </c>
@@ -1456,7 +1508,7 @@
         <v>2.1875</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A50" s="18">
         <v>43702</v>
       </c>
@@ -1475,7 +1527,7 @@
         <v>2.1875</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A51" s="15">
         <v>43703</v>
       </c>
@@ -1492,7 +1544,7 @@
         <v>2.1875</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A52" s="15">
         <v>43704</v>
       </c>
@@ -1509,7 +1561,7 @@
         <v>2.1875</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A53" s="15">
         <v>43705</v>
       </c>
@@ -1526,7 +1578,7 @@
         <v>2.1875</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A54" s="15">
         <v>43706</v>
       </c>
@@ -1543,7 +1595,7 @@
         <v>2.1875</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A55" s="15">
         <v>43707</v>
       </c>
@@ -1560,7 +1612,7 @@
         <v>2.1875</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A56" s="15">
         <v>43708</v>
       </c>
@@ -1577,7 +1629,7 @@
         <v>2.1875</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A57" s="17">
         <v>43709</v>
       </c>
@@ -1615,24 +1667,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Work Tracker/RealHours.xlsx
+++ b/Work Tracker/RealHours.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB48317-A57C-420E-9579-BA68FFEE61B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FEC4D6-FD85-4ADA-9E1B-CCA2BEEA3D21}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20490" yWindow="3160" windowWidth="14400" windowHeight="7380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -495,8 +495,8 @@
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1025,19 +1025,19 @@
         <v>7</v>
       </c>
       <c r="C23" s="14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E23">
         <f>SUM(D$2:D23)</f>
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="1"/>
-        <v>2.1875</v>
+        <v>2.0625</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.75">
@@ -1048,19 +1048,19 @@
         <v>7.5</v>
       </c>
       <c r="C24" s="14">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E24">
         <f>SUM(D$2:D24)</f>
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="1"/>
-        <v>2.1875</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.75">
@@ -1072,19 +1072,19 @@
         <v>6.25</v>
       </c>
       <c r="C25" s="14">
-        <v>6.25</v>
+        <v>8</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="E25">
         <f>SUM(D$2:D25)</f>
-        <v>17.5</v>
+        <v>14.25</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="1"/>
-        <v>2.1875</v>
+        <v>1.78125</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.75">
@@ -1092,17 +1092,20 @@
         <v>43678</v>
       </c>
       <c r="B26" s="4"/>
+      <c r="C26" s="14">
+        <v>8</v>
+      </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="E26">
         <f>SUM(D$2:D26)</f>
-        <v>17.5</v>
+        <v>6.25</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" si="1"/>
-        <v>2.1875</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.75">
@@ -1110,17 +1113,20 @@
         <v>43679</v>
       </c>
       <c r="B27" s="4"/>
+      <c r="C27" s="14">
+        <v>6.25</v>
+      </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-6.25</v>
       </c>
       <c r="E27">
         <f>SUM(D$2:D27)</f>
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" si="1"/>
-        <v>2.1875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.75">
@@ -1133,11 +1139,11 @@
       </c>
       <c r="E28">
         <f>SUM(D$2:D28)</f>
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" si="1"/>
-        <v>2.1875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
@@ -1152,11 +1158,11 @@
       </c>
       <c r="E29" s="8">
         <f>SUM(D$2:D29)</f>
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="F29" s="9">
         <f t="shared" si="1"/>
-        <v>2.1875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.75">
@@ -1170,11 +1176,11 @@
       </c>
       <c r="E30">
         <f>SUM(D$2:D30)</f>
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" si="1"/>
-        <v>2.1875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.75">
@@ -1188,11 +1194,11 @@
       </c>
       <c r="E31">
         <f>SUM(D$2:D31)</f>
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="F31" s="5">
         <f t="shared" si="1"/>
-        <v>2.1875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.75">
@@ -1206,29 +1212,34 @@
       </c>
       <c r="E32">
         <f>SUM(D$2:D32)</f>
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="F32" s="5">
         <f t="shared" si="1"/>
-        <v>2.1875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A33" s="15">
         <v>43685</v>
       </c>
-      <c r="B33" s="11"/>
+      <c r="B33" s="11">
+        <v>5</v>
+      </c>
+      <c r="C33" s="14">
+        <v>5</v>
+      </c>
       <c r="D33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E33">
         <f>SUM(D$2:D33)</f>
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="F33" s="5">
         <f t="shared" si="1"/>
-        <v>2.1875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.75">
@@ -1242,47 +1253,55 @@
       </c>
       <c r="E34">
         <f>SUM(D$2:D34)</f>
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="F34" s="5">
         <f t="shared" si="1"/>
-        <v>2.1875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A35" s="15">
         <v>43687</v>
       </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" s="14">
+        <v>2</v>
+      </c>
       <c r="D35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E35">
         <f>SUM(D$2:D35)</f>
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="F35" s="5">
         <f t="shared" si="1"/>
-        <v>2.1875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A36" s="18">
         <v>43688</v>
       </c>
-      <c r="B36" s="1"/>
+      <c r="B36" s="1">
+        <v>3</v>
+      </c>
       <c r="C36" s="20"/>
       <c r="D36" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E36" s="1">
         <f>SUM(D$2:D36)</f>
-        <v>17.5</v>
+        <v>3</v>
       </c>
       <c r="F36" s="6">
         <f t="shared" si="1"/>
-        <v>2.1875</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.75">
@@ -1295,11 +1314,11 @@
       </c>
       <c r="E37">
         <f>SUM(D$2:D37)</f>
-        <v>17.5</v>
+        <v>3</v>
       </c>
       <c r="F37" s="5">
         <f t="shared" si="1"/>
-        <v>2.1875</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.75">
@@ -1312,11 +1331,11 @@
       </c>
       <c r="E38">
         <f>SUM(D$2:D38)</f>
-        <v>17.5</v>
+        <v>3</v>
       </c>
       <c r="F38" s="5">
         <f t="shared" si="1"/>
-        <v>2.1875</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.75">
@@ -1329,11 +1348,11 @@
       </c>
       <c r="E39">
         <f>SUM(D$2:D39)</f>
-        <v>17.5</v>
+        <v>3</v>
       </c>
       <c r="F39" s="5">
         <f t="shared" si="1"/>
-        <v>2.1875</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.75">
@@ -1346,11 +1365,11 @@
       </c>
       <c r="E40">
         <f>SUM(D$2:D40)</f>
-        <v>17.5</v>
+        <v>3</v>
       </c>
       <c r="F40" s="5">
         <f t="shared" si="1"/>
-        <v>2.1875</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.75">
@@ -1363,11 +1382,11 @@
       </c>
       <c r="E41">
         <f>SUM(D$2:D41)</f>
-        <v>17.5</v>
+        <v>3</v>
       </c>
       <c r="F41" s="5">
         <f t="shared" si="1"/>
-        <v>2.1875</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.75">
@@ -1380,11 +1399,11 @@
       </c>
       <c r="E42">
         <f>SUM(D$2:D42)</f>
-        <v>17.5</v>
+        <v>3</v>
       </c>
       <c r="F42" s="5">
         <f t="shared" si="1"/>
-        <v>2.1875</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
@@ -1399,11 +1418,11 @@
       </c>
       <c r="E43" s="10">
         <f>SUM(D$2:D43)</f>
-        <v>17.5</v>
+        <v>3</v>
       </c>
       <c r="F43" s="12">
         <f t="shared" si="1"/>
-        <v>2.1875</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.75">
@@ -1416,11 +1435,11 @@
       </c>
       <c r="E44">
         <f>SUM(D$2:D44)</f>
-        <v>17.5</v>
+        <v>3</v>
       </c>
       <c r="F44" s="5">
         <f t="shared" si="1"/>
-        <v>2.1875</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.75">
@@ -1433,11 +1452,11 @@
       </c>
       <c r="E45">
         <f>SUM(D$2:D45)</f>
-        <v>17.5</v>
+        <v>3</v>
       </c>
       <c r="F45" s="5">
         <f t="shared" si="1"/>
-        <v>2.1875</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.75">
@@ -1450,11 +1469,11 @@
       </c>
       <c r="E46">
         <f>SUM(D$2:D46)</f>
-        <v>17.5</v>
+        <v>3</v>
       </c>
       <c r="F46" s="5">
         <f t="shared" si="1"/>
-        <v>2.1875</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.75">
@@ -1467,11 +1486,11 @@
       </c>
       <c r="E47">
         <f>SUM(D$2:D47)</f>
-        <v>17.5</v>
+        <v>3</v>
       </c>
       <c r="F47" s="5">
         <f t="shared" si="1"/>
-        <v>2.1875</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.75">
@@ -1484,11 +1503,11 @@
       </c>
       <c r="E48">
         <f>SUM(D$2:D48)</f>
-        <v>17.5</v>
+        <v>3</v>
       </c>
       <c r="F48" s="5">
         <f t="shared" si="1"/>
-        <v>2.1875</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.75">
@@ -1501,11 +1520,11 @@
       </c>
       <c r="E49">
         <f>SUM(D$2:D49)</f>
-        <v>17.5</v>
+        <v>3</v>
       </c>
       <c r="F49" s="5">
         <f t="shared" si="1"/>
-        <v>2.1875</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.75">
@@ -1520,11 +1539,11 @@
       </c>
       <c r="E50" s="1">
         <f>SUM(D$2:D50)</f>
-        <v>17.5</v>
+        <v>3</v>
       </c>
       <c r="F50" s="6">
         <f t="shared" si="1"/>
-        <v>2.1875</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.75">
@@ -1537,11 +1556,11 @@
       </c>
       <c r="E51" s="2">
         <f>SUM(D$2:D51)</f>
-        <v>17.5</v>
+        <v>3</v>
       </c>
       <c r="F51" s="13">
         <f t="shared" ref="F51:F57" si="3">E51/8</f>
-        <v>2.1875</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.75">
@@ -1554,11 +1573,11 @@
       </c>
       <c r="E52" s="2">
         <f>SUM(D$2:D52)</f>
-        <v>17.5</v>
+        <v>3</v>
       </c>
       <c r="F52" s="13">
         <f t="shared" si="3"/>
-        <v>2.1875</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.75">
@@ -1571,11 +1590,11 @@
       </c>
       <c r="E53" s="2">
         <f>SUM(D$2:D53)</f>
-        <v>17.5</v>
+        <v>3</v>
       </c>
       <c r="F53" s="13">
         <f t="shared" si="3"/>
-        <v>2.1875</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.75">
@@ -1588,11 +1607,11 @@
       </c>
       <c r="E54" s="2">
         <f>SUM(D$2:D54)</f>
-        <v>17.5</v>
+        <v>3</v>
       </c>
       <c r="F54" s="13">
         <f t="shared" si="3"/>
-        <v>2.1875</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.75">
@@ -1605,11 +1624,11 @@
       </c>
       <c r="E55" s="2">
         <f>SUM(D$2:D55)</f>
-        <v>17.5</v>
+        <v>3</v>
       </c>
       <c r="F55" s="13">
         <f t="shared" si="3"/>
-        <v>2.1875</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.75">
@@ -1622,11 +1641,11 @@
       </c>
       <c r="E56" s="2">
         <f>SUM(D$2:D56)</f>
-        <v>17.5</v>
+        <v>3</v>
       </c>
       <c r="F56" s="13">
         <f t="shared" si="3"/>
-        <v>2.1875</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
@@ -1641,11 +1660,11 @@
       </c>
       <c r="E57" s="8">
         <f>SUM(D$2:D57)</f>
-        <v>17.5</v>
+        <v>3</v>
       </c>
       <c r="F57" s="9">
         <f t="shared" si="3"/>
-        <v>2.1875</v>
+        <v>0.375</v>
       </c>
     </row>
   </sheetData>

--- a/Work Tracker/RealHours.xlsx
+++ b/Work Tracker/RealHours.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FEC4D6-FD85-4ADA-9E1B-CCA2BEEA3D21}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B7946D-3FC6-4D7E-8D24-C959881CD2B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20490" yWindow="3160" windowWidth="14400" windowHeight="7380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -496,7 +496,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1288,54 +1288,60 @@
         <v>43688</v>
       </c>
       <c r="B36" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E36" s="1">
         <f>SUM(D$2:D36)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F36" s="6">
         <f t="shared" si="1"/>
-        <v>0.375</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A37" s="15">
         <v>43689</v>
       </c>
+      <c r="B37" s="11">
+        <v>6</v>
+      </c>
       <c r="D37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E37">
         <f>SUM(D$2:D37)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F37" s="5">
         <f t="shared" si="1"/>
-        <v>0.375</v>
+        <v>1.375</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A38" s="15">
         <v>43690</v>
       </c>
+      <c r="B38" s="11">
+        <v>8</v>
+      </c>
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E38">
         <f>SUM(D$2:D38)</f>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F38" s="5">
         <f t="shared" si="1"/>
-        <v>0.375</v>
+        <v>2.375</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.75">
@@ -1348,11 +1354,11 @@
       </c>
       <c r="E39">
         <f>SUM(D$2:D39)</f>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F39" s="5">
         <f t="shared" si="1"/>
-        <v>0.375</v>
+        <v>2.375</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.75">
@@ -1365,11 +1371,11 @@
       </c>
       <c r="E40">
         <f>SUM(D$2:D40)</f>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F40" s="5">
         <f t="shared" si="1"/>
-        <v>0.375</v>
+        <v>2.375</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.75">
@@ -1382,11 +1388,11 @@
       </c>
       <c r="E41">
         <f>SUM(D$2:D41)</f>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F41" s="5">
         <f t="shared" si="1"/>
-        <v>0.375</v>
+        <v>2.375</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.75">
@@ -1399,11 +1405,11 @@
       </c>
       <c r="E42">
         <f>SUM(D$2:D42)</f>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F42" s="5">
         <f t="shared" si="1"/>
-        <v>0.375</v>
+        <v>2.375</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
@@ -1418,11 +1424,11 @@
       </c>
       <c r="E43" s="10">
         <f>SUM(D$2:D43)</f>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F43" s="12">
         <f t="shared" si="1"/>
-        <v>0.375</v>
+        <v>2.375</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.75">
@@ -1435,11 +1441,11 @@
       </c>
       <c r="E44">
         <f>SUM(D$2:D44)</f>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F44" s="5">
         <f t="shared" si="1"/>
-        <v>0.375</v>
+        <v>2.375</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.75">
@@ -1452,11 +1458,11 @@
       </c>
       <c r="E45">
         <f>SUM(D$2:D45)</f>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F45" s="5">
         <f t="shared" si="1"/>
-        <v>0.375</v>
+        <v>2.375</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.75">
@@ -1469,11 +1475,11 @@
       </c>
       <c r="E46">
         <f>SUM(D$2:D46)</f>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F46" s="5">
         <f t="shared" si="1"/>
-        <v>0.375</v>
+        <v>2.375</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.75">
@@ -1486,11 +1492,11 @@
       </c>
       <c r="E47">
         <f>SUM(D$2:D47)</f>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F47" s="5">
         <f t="shared" si="1"/>
-        <v>0.375</v>
+        <v>2.375</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.75">
@@ -1503,11 +1509,11 @@
       </c>
       <c r="E48">
         <f>SUM(D$2:D48)</f>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F48" s="5">
         <f t="shared" si="1"/>
-        <v>0.375</v>
+        <v>2.375</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.75">
@@ -1520,11 +1526,11 @@
       </c>
       <c r="E49">
         <f>SUM(D$2:D49)</f>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F49" s="5">
         <f t="shared" si="1"/>
-        <v>0.375</v>
+        <v>2.375</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.75">
@@ -1539,11 +1545,11 @@
       </c>
       <c r="E50" s="1">
         <f>SUM(D$2:D50)</f>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F50" s="6">
         <f t="shared" si="1"/>
-        <v>0.375</v>
+        <v>2.375</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.75">
@@ -1556,11 +1562,11 @@
       </c>
       <c r="E51" s="2">
         <f>SUM(D$2:D51)</f>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F51" s="13">
         <f t="shared" ref="F51:F57" si="3">E51/8</f>
-        <v>0.375</v>
+        <v>2.375</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.75">
@@ -1573,11 +1579,11 @@
       </c>
       <c r="E52" s="2">
         <f>SUM(D$2:D52)</f>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F52" s="13">
         <f t="shared" si="3"/>
-        <v>0.375</v>
+        <v>2.375</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.75">
@@ -1590,11 +1596,11 @@
       </c>
       <c r="E53" s="2">
         <f>SUM(D$2:D53)</f>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F53" s="13">
         <f t="shared" si="3"/>
-        <v>0.375</v>
+        <v>2.375</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.75">
@@ -1607,11 +1613,11 @@
       </c>
       <c r="E54" s="2">
         <f>SUM(D$2:D54)</f>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F54" s="13">
         <f t="shared" si="3"/>
-        <v>0.375</v>
+        <v>2.375</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.75">
@@ -1624,11 +1630,11 @@
       </c>
       <c r="E55" s="2">
         <f>SUM(D$2:D55)</f>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F55" s="13">
         <f t="shared" si="3"/>
-        <v>0.375</v>
+        <v>2.375</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.75">
@@ -1641,11 +1647,11 @@
       </c>
       <c r="E56" s="2">
         <f>SUM(D$2:D56)</f>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F56" s="13">
         <f t="shared" si="3"/>
-        <v>0.375</v>
+        <v>2.375</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
@@ -1660,11 +1666,11 @@
       </c>
       <c r="E57" s="8">
         <f>SUM(D$2:D57)</f>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F57" s="9">
         <f t="shared" si="3"/>
-        <v>0.375</v>
+        <v>2.375</v>
       </c>
     </row>
   </sheetData>
